--- a/Documentatie/Urenverantwoording/Perijn/Urenverantwoording.xlsx
+++ b/Documentatie/Urenverantwoording/Perijn/Urenverantwoording.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EIGENAAR\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Perij\Documents\GitHub\Project-digitale-besturing\Documentatie\Urenverantwoording\Perijn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1BE20B9-1F87-411B-AF0C-5471E85F723A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DEFC2F-FE45-4578-9628-76A237260E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="week 1" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="45">
   <si>
     <t>Urenverantwoordingsformulier</t>
   </si>
@@ -161,16 +161,22 @@
     <t>pause tijd</t>
   </si>
   <si>
-    <t>Rocfriesepoort</t>
+    <t>NHL stenden</t>
   </si>
   <si>
-    <t>bakker</t>
+    <t>Perijn Huijser</t>
   </si>
   <si>
-    <t>perijn</t>
+    <t>Week reflactie</t>
   </si>
   <si>
-    <t>Rieno moedt</t>
+    <t>Naam Tutor</t>
+  </si>
+  <si>
+    <t>Cees Draaier</t>
+  </si>
+  <si>
+    <t>Hendrik Bijlsma</t>
   </si>
 </sst>
 </file>
@@ -786,21 +792,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="37" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -867,8 +858,23 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="37" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -891,9 +897,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
-    <cellStyle name="Komma" xfId="3" builtinId="3"/>
-    <cellStyle name="Procent" xfId="2" builtinId="5"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -911,7 +917,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1134,19 +1140,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>45691</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45692</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45693</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>45694</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>45695</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45696</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1155,7 +1161,7 @@
             <c:numRef>
               <c:f>'algemeene data.'!$C$4:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1164,10 +1170,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.22916666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1358,19 +1364,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>45691</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45692</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45693</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>45694</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>45695</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45696</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1379,7 +1385,7 @@
             <c:numRef>
               <c:f>'algemeene data.'!$C$4:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1388,10 +1394,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.22916666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1414,19 +1420,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5-2-2025</c:v>
+                  <c:v>03/02/2025</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6-2-2025</c:v>
+                  <c:v>04/02/2025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7-2-2025</c:v>
+                  <c:v>05/02/2025</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8-2-2025</c:v>
+                  <c:v>06/02/2025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9-2-2025</c:v>
+                  <c:v>07/02/2025</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1514,19 +1520,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>45691</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45692</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45693</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>45694</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>45695</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45696</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1723,19 +1729,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>45691</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45692</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45693</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>45694</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>45695</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45696</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1744,7 +1750,7 @@
             <c:numRef>
               <c:f>'algemeene data.'!$C$4:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1753,10 +1759,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.22916666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1779,19 +1785,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5-2-2025</c:v>
+                  <c:v>03/02/2025</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6-2-2025</c:v>
+                  <c:v>04/02/2025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7-2-2025</c:v>
+                  <c:v>05/02/2025</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8-2-2025</c:v>
+                  <c:v>06/02/2025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9-2-2025</c:v>
+                  <c:v>07/02/2025</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1880,19 +1886,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>45691</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45692</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45693</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>45694</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>45695</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45696</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45697</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2090,19 +2096,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>45691</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45692</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45693</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>45694</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>45695</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45696</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2111,7 +2117,7 @@
             <c:numRef>
               <c:f>'algemeene data.'!$C$4:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2120,10 +2126,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.22916666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2146,19 +2152,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5-2-2025</c:v>
+                  <c:v>03/02/2025</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6-2-2025</c:v>
+                  <c:v>04/02/2025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7-2-2025</c:v>
+                  <c:v>05/02/2025</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8-2-2025</c:v>
+                  <c:v>06/02/2025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9-2-2025</c:v>
+                  <c:v>07/02/2025</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2247,19 +2253,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>45691</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45692</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45693</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>45694</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>45695</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45696</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45697</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2309,19 +2315,19 @@
                     <c:strCache>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>5-2-2025</c:v>
+                        <c:v>03/02/2025</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>6-2-2025</c:v>
+                        <c:v>04/02/2025</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>7-2-2025</c:v>
+                        <c:v>05/02/2025</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>8-2-2025</c:v>
+                        <c:v>06/02/2025</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>9-2-2025</c:v>
+                        <c:v>07/02/2025</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2415,19 +2421,19 @@
                       <c:formatCode>m/d/yyyy</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
+                        <c:v>45691</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>45692</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
                         <c:v>45693</c:v>
                       </c:pt>
-                      <c:pt idx="1">
+                      <c:pt idx="3">
                         <c:v>45694</c:v>
                       </c:pt>
-                      <c:pt idx="2">
+                      <c:pt idx="4">
                         <c:v>45695</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>45696</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>45697</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2531,7 +2537,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2796,10 +2802,10 @@
               </c:extLst>
               <c:f>'algemeene data.'!$A$24:$G$24</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.33333333333333326</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2929,7 +2935,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3174,7 +3180,7 @@
             <c:numRef>
               <c:f>'algemeene data.'!$O$24:$S$24</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3183,10 +3189,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.22916666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3298,7 +3304,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3521,19 +3527,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>45698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45699</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45700</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>45701</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>45702</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45703</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3542,7 +3548,7 @@
             <c:numRef>
               <c:f>'algemeene data.'!$G$4:$G$8</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3665,19 +3671,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>45698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45699</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45700</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>45701</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>45702</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45703</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3795,7 +3801,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4018,19 +4024,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>45705</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45706</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45707</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>45708</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>45709</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45710</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45711</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4039,7 +4045,7 @@
             <c:numRef>
               <c:f>'algemeene data.'!$K$4:$K$8</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4162,19 +4168,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>45705</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45706</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45707</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>45708</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>45709</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45710</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45711</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4292,7 +4298,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4459,19 +4465,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>45712</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45713</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45714</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>45715</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>45716</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45717</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45718</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4480,7 +4486,7 @@
             <c:numRef>
               <c:f>'algemeene data.'!$O$4:$O$8</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4603,7 +4609,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4770,19 +4776,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>45719</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45720</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45721</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>45722</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>45723</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45724</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4791,7 +4797,7 @@
             <c:numRef>
               <c:f>'algemeene data.'!$S$4:$S$8</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4914,7 +4920,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5081,19 +5087,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>45726</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45727</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45728</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>45729</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>45730</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45731</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45732</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5102,7 +5108,7 @@
             <c:numRef>
               <c:f>'algemeene data.'!$W$4:$W$8</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5225,7 +5231,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5392,19 +5398,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>45733</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45734</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45735</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>45736</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>45737</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45738</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5413,7 +5419,7 @@
             <c:numRef>
               <c:f>'algemeene data.'!$AA$4:$AA$8</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5536,7 +5542,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5703,19 +5709,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>45740</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45741</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45742</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>45743</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>45744</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45745</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5724,7 +5730,7 @@
             <c:numRef>
               <c:f>'algemeene data.'!$AE$4:$AE$8</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5847,7 +5853,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6846,124 +6852,124 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
+                  <c:v>45740</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45741</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45742</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>45743</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>45744</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>45745</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45746</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>45733</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45734</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>45735</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>45736</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>45737</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>45738</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45739</c:v>
-                </c:pt>
                 <c:pt idx="10">
+                  <c:v>45726</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45727</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>45728</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>45729</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>45730</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>45731</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45732</c:v>
-                </c:pt>
                 <c:pt idx="15">
+                  <c:v>45719</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45720</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>45721</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>45722</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>45723</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>45724</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45725</c:v>
-                </c:pt>
                 <c:pt idx="20">
+                  <c:v>45712</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45713</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>45714</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>45715</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>45716</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>45717</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>45718</c:v>
-                </c:pt>
                 <c:pt idx="25">
+                  <c:v>45705</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45706</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>45707</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>45708</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>45709</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>45710</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>45711</c:v>
-                </c:pt>
                 <c:pt idx="30">
+                  <c:v>45698</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45699</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>45700</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>45701</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>45702</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>45703</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>45704</c:v>
-                </c:pt>
                 <c:pt idx="35">
+                  <c:v>45691</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45692</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>45693</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>45694</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>45695</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>45696</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>45697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6972,7 +6978,7 @@
             <c:numRef>
               <c:f>('algemeene data.'!$C$4:$C$8,'algemeene data.'!$G$4:$G$8,'algemeene data.'!$K$4:$K$8,'algemeene data.'!$O$4:$O$8,'algemeene data.'!$S$4:$S$8,'algemeene data.'!$W$4:$W$8,'algemeene data.'!$AA$4:$AA$8,'algemeene data.'!$AE$4:$AE$8)</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -6981,10 +6987,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.22916666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -13749,7 +13755,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -14048,14 +14054,14 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.88671875" customWidth="1"/>
     <col min="17" max="17" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -14088,7 +14094,7 @@
       </c>
       <c r="F2" s="7">
         <f>IF($D$2='datum data.'!B2,'datum data.'!D2,IF($D$2='datum data.'!B4,'datum data.'!D4,IF(D2='datum data.'!B6,'datum data.'!D6,IF(D2='datum data.'!B8,'datum data.'!D8,IF('week 1'!D2='datum data.'!B10,'datum data.'!D10,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B14,'datum data.'!D14,IF(D2='datum data.'!B16,'datum data.'!D16,IF(D2='datum data.'!B18,'datum data.'!D18))))))))))</f>
-        <v>45693</v>
+        <v>45691</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9" t="s">
@@ -14096,7 +14102,7 @@
       </c>
       <c r="I2" s="7">
         <f>F2+4</f>
-        <v>45697</v>
+        <v>45695</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="10" t="s">
@@ -14129,10 +14135,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="53"/>
+      <c r="C4" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -14140,10 +14146,10 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="53" t="s">
+      <c r="J4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="53"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -14169,21 +14175,21 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="53"/>
+      <c r="C6" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="53"/>
+      <c r="J6" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -14250,19 +14256,19 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
       </c>
@@ -14271,25 +14277,25 @@
       <c r="A11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="55">
+      <c r="B11" s="50">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
       <c r="P11" s="35"/>
@@ -14298,24 +14304,24 @@
     <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="33">
         <f>F2</f>
-        <v>45693</v>
-      </c>
-      <c r="B12" s="56"/>
+        <v>45691</v>
+      </c>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
       <c r="P12" s="35"/>
       <c r="Q12" s="18"/>
     </row>
@@ -14323,25 +14329,25 @@
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="76">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="27">
         <v>0</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="50">
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="74">
         <v>0</v>
       </c>
       <c r="P13" s="35"/>
@@ -14350,24 +14356,24 @@
     <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <f>A12+1</f>
-        <v>45694</v>
-      </c>
-      <c r="B14" s="56"/>
+        <v>45692</v>
+      </c>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
       <c r="P14" s="35"/>
       <c r="Q14" s="18"/>
     </row>
@@ -14375,25 +14381,25 @@
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="76">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
-        <v>0</v>
+        <v>0.22916666666666663</v>
       </c>
       <c r="C15" s="27">
-        <v>0</v>
-      </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="50">
+        <v>0.4375</v>
+      </c>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="74">
         <v>0</v>
       </c>
       <c r="P15" s="35"/>
@@ -14402,120 +14408,120 @@
     <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <f>A14+1</f>
-        <v>45695</v>
-      </c>
-      <c r="B16" s="56"/>
+        <v>45693</v>
+      </c>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
-        <v>0</v>
-      </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="51"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="76">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
-        <v>0</v>
+        <v>0.10416666666666663</v>
       </c>
       <c r="C17" s="27">
-        <v>0</v>
-      </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="50">
+        <v>0.4375</v>
+      </c>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
         <f>A16+1</f>
-        <v>45696</v>
-      </c>
-      <c r="B18" s="56"/>
+        <v>45694</v>
+      </c>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
-        <v>0</v>
-      </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="51"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="76">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="27">
         <v>0</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="50">
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <f>A18+1</f>
-        <v>45697</v>
-      </c>
-      <c r="B20" s="56"/>
+        <v>45695</v>
+      </c>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -14534,8 +14540,8 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="66" t="s">
-        <v>20</v>
+      <c r="A22" s="61" t="s">
+        <v>41</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>21</v>
@@ -14556,51 +14562,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="67"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="71"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="67"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="71"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="68"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="75"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -14627,7 +14633,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>B11+B13+B15+B17+B19</f>
-        <v>0</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -14650,7 +14656,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="49">
         <f>SUM(B11:B20)</f>
-        <v>0</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -14670,6 +14676,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -14683,16 +14699,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14719,13 +14725,13 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14739,7 +14745,7 @@
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="24">
-        <v>45693</v>
+        <v>45691</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="19">
@@ -14765,7 +14771,7 @@
       <c r="C4" s="23"/>
       <c r="D4" s="24">
         <f>D2+7</f>
-        <v>45700</v>
+        <v>45698</v>
       </c>
       <c r="G4" s="20">
         <v>3</v>
@@ -14786,7 +14792,7 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24">
         <f>D4+7</f>
-        <v>45707</v>
+        <v>45705</v>
       </c>
       <c r="G6" s="20">
         <v>5</v>
@@ -14807,7 +14813,7 @@
       <c r="C8" s="23"/>
       <c r="D8" s="24">
         <f>D6+7</f>
-        <v>45714</v>
+        <v>45712</v>
       </c>
       <c r="G8" s="20">
         <v>7</v>
@@ -14828,7 +14834,7 @@
       <c r="C10" s="23"/>
       <c r="D10" s="24">
         <f>D8+7</f>
-        <v>45721</v>
+        <v>45719</v>
       </c>
       <c r="G10" s="21">
         <v>9</v>
@@ -14845,7 +14851,7 @@
       <c r="C12" s="23"/>
       <c r="D12" s="24">
         <f>D10+7</f>
-        <v>45728</v>
+        <v>45726</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -14859,7 +14865,7 @@
       <c r="C14" s="23"/>
       <c r="D14" s="24">
         <f>D12+7</f>
-        <v>45735</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -14873,7 +14879,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24">
         <f>D14+7</f>
-        <v>45742</v>
+        <v>45740</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -14887,7 +14893,7 @@
       <c r="C18" s="23"/>
       <c r="D18" s="24">
         <f>D16+7</f>
-        <v>45749</v>
+        <v>45747</v>
       </c>
     </row>
   </sheetData>
@@ -14940,7 +14946,7 @@
       </c>
       <c r="F2" s="7">
         <f>IF($D$2='datum data.'!B2,'datum data.'!D2,IF($D$2='datum data.'!B4,'datum data.'!D4,IF(D2='datum data.'!B6,'datum data.'!D6,IF(D2='datum data.'!B8,'datum data.'!D8,IF('week 2'!D2='datum data.'!B10,'datum data.'!D10,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B14,'datum data.'!D14,IF(D2='datum data.'!B16,'datum data.'!D16,IF(D2='datum data.'!B18,'datum data.'!D18))))))))))</f>
-        <v>45700</v>
+        <v>45698</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9" t="s">
@@ -14948,7 +14954,7 @@
       </c>
       <c r="I2" s="7">
         <f>F2+4</f>
-        <v>45704</v>
+        <v>45702</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="10" t="s">
@@ -14982,11 +14988,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="53" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
-        <v>perijn</v>
-      </c>
-      <c r="D4" s="53"/>
+        <v>Perijn Huijser</v>
+      </c>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -14994,11 +15000,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="53" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
-        <v>Rocfriesepoort</v>
-      </c>
-      <c r="K4" s="53"/>
+        <v>NHL stenden</v>
+      </c>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -15024,11 +15030,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="53" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
-        <v>Rieno moedt</v>
-      </c>
-      <c r="D6" s="53"/>
+        <v>Hendrik Bijlsma</v>
+      </c>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -15036,11 +15042,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="53" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
-        <v>bakker</v>
-      </c>
-      <c r="K6" s="53"/>
+        <v>Cees Draaier</v>
+      </c>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -15107,19 +15113,19 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="77"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
       </c>
@@ -15128,241 +15134,241 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="76">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="33">
         <f>F2</f>
-        <v>45700</v>
-      </c>
-      <c r="B12" s="56"/>
+        <v>45698</v>
+      </c>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="76">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="27">
         <v>0</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="50">
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <f>A12+1</f>
-        <v>45701</v>
-      </c>
-      <c r="B14" s="56"/>
+        <v>45699</v>
+      </c>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="76">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="27">
         <v>0</v>
       </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="50">
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <f>A14+1</f>
-        <v>45702</v>
-      </c>
-      <c r="B16" s="56"/>
+        <v>45700</v>
+      </c>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="76">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="50">
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
         <f>A16+1</f>
-        <v>45703</v>
-      </c>
-      <c r="B18" s="56"/>
+        <v>45701</v>
+      </c>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="76">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="27">
         <v>0</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="50">
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <f>A18+1</f>
-        <v>45704</v>
-      </c>
-      <c r="B20" s="56"/>
+        <v>45702</v>
+      </c>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -15381,7 +15387,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -15403,51 +15409,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="67"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="71"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="67"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="71"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="68"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="75"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -15474,7 +15480,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 1'!D27)</f>
-        <v>0</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -15520,6 +15526,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="D15:N16"/>
+    <mergeCell ref="D17:N18"/>
+    <mergeCell ref="D19:N20"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B23:G25"/>
+    <mergeCell ref="H23:M25"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="C4:D4"/>
@@ -15529,20 +15549,6 @@
     <mergeCell ref="D10:N10"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
-    <mergeCell ref="D15:N16"/>
-    <mergeCell ref="D17:N18"/>
-    <mergeCell ref="D19:N20"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B23:G25"/>
-    <mergeCell ref="H23:M25"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15592,7 +15598,7 @@
       </c>
       <c r="F2" s="7">
         <f>IF($D$2='datum data.'!B2,'datum data.'!D2,IF($D$2='datum data.'!B4,'datum data.'!D4,IF(D2='datum data.'!B6,'datum data.'!D6,IF(D2='datum data.'!B8,'datum data.'!D8,IF('week 3'!D2='datum data.'!B10,'datum data.'!D10,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B14,'datum data.'!D14,IF(D2='datum data.'!B16,'datum data.'!D16,IF(D2='datum data.'!B18,'datum data.'!D18))))))))))</f>
-        <v>45707</v>
+        <v>45705</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9" t="s">
@@ -15600,7 +15606,7 @@
       </c>
       <c r="I2" s="7">
         <f>F2+4</f>
-        <v>45711</v>
+        <v>45709</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="10" t="s">
@@ -15634,11 +15640,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="53" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
-        <v>perijn</v>
-      </c>
-      <c r="D4" s="53"/>
+        <v>Perijn Huijser</v>
+      </c>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -15646,11 +15652,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="53" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
-        <v>Rocfriesepoort</v>
-      </c>
-      <c r="K4" s="53"/>
+        <v>NHL stenden</v>
+      </c>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -15676,11 +15682,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="53" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
-        <v>Rieno moedt</v>
-      </c>
-      <c r="D6" s="53"/>
+        <v>Hendrik Bijlsma</v>
+      </c>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -15688,11 +15694,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="53" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
-        <v>bakker</v>
-      </c>
-      <c r="K6" s="53"/>
+        <v>Cees Draaier</v>
+      </c>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -15759,19 +15765,19 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="77"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
       </c>
@@ -15780,241 +15786,241 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="76">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="33">
         <f>F2</f>
-        <v>45707</v>
-      </c>
-      <c r="B12" s="56"/>
+        <v>45705</v>
+      </c>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="76">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="27">
         <v>0</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="50">
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <f>A12+1</f>
-        <v>45708</v>
-      </c>
-      <c r="B14" s="56"/>
+        <v>45706</v>
+      </c>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="76">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="27">
         <v>0</v>
       </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="50">
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <f>A14+1</f>
-        <v>45709</v>
-      </c>
-      <c r="B16" s="56"/>
+        <v>45707</v>
+      </c>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="76">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="50">
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
         <f>A16+1</f>
-        <v>45710</v>
-      </c>
-      <c r="B18" s="56"/>
+        <v>45708</v>
+      </c>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="76">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="27">
         <v>0</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="50">
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <f>A18+1</f>
-        <v>45711</v>
-      </c>
-      <c r="B20" s="56"/>
+        <v>45709</v>
+      </c>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -16033,7 +16039,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -16055,51 +16061,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="67"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="71"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="67"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="71"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="68"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="75"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -16126,7 +16132,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 2'!D27)</f>
-        <v>0</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -16169,6 +16175,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -16182,16 +16198,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16241,7 +16247,7 @@
       </c>
       <c r="F2" s="7">
         <f>IF($D$2='datum data.'!B2,'datum data.'!D2,IF($D$2='datum data.'!B4,'datum data.'!D4,IF(D2='datum data.'!B6,'datum data.'!D6,IF(D2='datum data.'!B8,'datum data.'!D8,IF('week 4'!D2='datum data.'!B10,'datum data.'!D10,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B14,'datum data.'!D14,IF(D2='datum data.'!B16,'datum data.'!D16,IF(D2='datum data.'!B18,'datum data.'!D18))))))))))</f>
-        <v>45714</v>
+        <v>45712</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9" t="s">
@@ -16249,7 +16255,7 @@
       </c>
       <c r="I2" s="7">
         <f>F2+4</f>
-        <v>45718</v>
+        <v>45716</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="10" t="s">
@@ -16283,11 +16289,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="53" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
-        <v>perijn</v>
-      </c>
-      <c r="D4" s="53"/>
+        <v>Perijn Huijser</v>
+      </c>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -16295,11 +16301,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="53" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
-        <v>Rocfriesepoort</v>
-      </c>
-      <c r="K4" s="53"/>
+        <v>NHL stenden</v>
+      </c>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -16325,11 +16331,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="53" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
-        <v>Rieno moedt</v>
-      </c>
-      <c r="D6" s="53"/>
+        <v>Hendrik Bijlsma</v>
+      </c>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -16337,11 +16343,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="53" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
-        <v>bakker</v>
-      </c>
-      <c r="K6" s="53"/>
+        <v>Cees Draaier</v>
+      </c>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -16408,19 +16414,19 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="77"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
       </c>
@@ -16429,241 +16435,241 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="76">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="33">
         <f>F2</f>
-        <v>45714</v>
-      </c>
-      <c r="B12" s="56"/>
+        <v>45712</v>
+      </c>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="76">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="50">
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <f>A12+1</f>
-        <v>45715</v>
-      </c>
-      <c r="B14" s="56"/>
+        <v>45713</v>
+      </c>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="76">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="50">
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <f>A14+1</f>
-        <v>45716</v>
-      </c>
-      <c r="B16" s="56"/>
+        <v>45714</v>
+      </c>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="76">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="52">
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <f>A16+1</f>
-        <v>45717</v>
-      </c>
-      <c r="B18" s="56"/>
+        <v>45715</v>
+      </c>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="76">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="52">
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <f>A18+1</f>
-        <v>45718</v>
-      </c>
-      <c r="B20" s="56"/>
+        <v>45716</v>
+      </c>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -16682,7 +16688,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -16704,51 +16710,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="67"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="71"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="67"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="71"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="68"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="75"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -16775,7 +16781,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 3'!D27)</f>
-        <v>0</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -16818,6 +16824,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -16831,16 +16847,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16851,7 +16857,7 @@
   <sheetPr codeName="Blad6"/>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -16891,7 +16897,7 @@
       </c>
       <c r="F2" s="7">
         <f>IF($D$2='datum data.'!B2,'datum data.'!D2,IF($D$2='datum data.'!B4,'datum data.'!D4,IF(D2='datum data.'!B6,'datum data.'!D6,IF(D2='datum data.'!B8,'datum data.'!D8,IF('week 5'!D2='datum data.'!B10,'datum data.'!D10,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B14,'datum data.'!D14,IF(D2='datum data.'!B16,'datum data.'!D16,IF(D2='datum data.'!B18,'datum data.'!D18))))))))))</f>
-        <v>45721</v>
+        <v>45719</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9" t="s">
@@ -16899,7 +16905,7 @@
       </c>
       <c r="I2" s="7">
         <f>F2+4</f>
-        <v>45725</v>
+        <v>45723</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="10" t="s">
@@ -16933,11 +16939,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="53" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
-        <v>perijn</v>
-      </c>
-      <c r="D4" s="53"/>
+        <v>Perijn Huijser</v>
+      </c>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -16945,11 +16951,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="53" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
-        <v>Rocfriesepoort</v>
-      </c>
-      <c r="K4" s="53"/>
+        <v>NHL stenden</v>
+      </c>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -16975,11 +16981,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="53" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
-        <v>Rieno moedt</v>
-      </c>
-      <c r="D6" s="53"/>
+        <v>Hendrik Bijlsma</v>
+      </c>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -16987,11 +16993,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="53" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
-        <v>bakker</v>
-      </c>
-      <c r="K6" s="53"/>
+        <v>Cees Draaier</v>
+      </c>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -17058,19 +17064,19 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="77"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
       </c>
@@ -17079,241 +17085,241 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="76">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="33">
         <f>F2</f>
-        <v>45721</v>
-      </c>
-      <c r="B12" s="56"/>
+        <v>45719</v>
+      </c>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="76">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="52">
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <f>A12+1</f>
-        <v>45722</v>
-      </c>
-      <c r="B14" s="56"/>
+        <v>45720</v>
+      </c>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="76">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="52">
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <f>A14+1</f>
-        <v>45723</v>
-      </c>
-      <c r="B16" s="56"/>
+        <v>45721</v>
+      </c>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="76">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="52">
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <f>A16+1</f>
-        <v>45724</v>
-      </c>
-      <c r="B18" s="56"/>
+        <v>45722</v>
+      </c>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="76">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="52">
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <f>A18+1</f>
-        <v>45725</v>
-      </c>
-      <c r="B20" s="56"/>
+        <v>45723</v>
+      </c>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -17332,7 +17338,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -17354,51 +17360,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="67"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="71"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="67"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="71"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="68"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="75"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -17425,7 +17431,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 4'!D27)</f>
-        <v>0</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -17468,6 +17474,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -17481,16 +17497,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -17553,7 +17559,7 @@
       </c>
       <c r="F2" s="7">
         <f>IF($D$2='datum data.'!B2,'datum data.'!D2,IF($D$2='datum data.'!B4,'datum data.'!D4,IF(D2='datum data.'!B6,'datum data.'!D6,IF(D2='datum data.'!B8,'datum data.'!D8,IF('week 6'!D2='datum data.'!B10,'datum data.'!D10,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B14,'datum data.'!D14,IF(D2='datum data.'!B16,'datum data.'!D16,IF(D2='datum data.'!B18,'datum data.'!D18))))))))))</f>
-        <v>45728</v>
+        <v>45726</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9" t="s">
@@ -17561,7 +17567,7 @@
       </c>
       <c r="I2" s="7">
         <f>F2+4</f>
-        <v>45732</v>
+        <v>45730</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="10" t="s">
@@ -17595,11 +17601,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="53" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
-        <v>perijn</v>
-      </c>
-      <c r="D4" s="53"/>
+        <v>Perijn Huijser</v>
+      </c>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -17607,11 +17613,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="53" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
-        <v>Rocfriesepoort</v>
-      </c>
-      <c r="K4" s="53"/>
+        <v>NHL stenden</v>
+      </c>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -17637,11 +17643,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="53" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
-        <v>Rieno moedt</v>
-      </c>
-      <c r="D6" s="53"/>
+        <v>Hendrik Bijlsma</v>
+      </c>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -17649,11 +17655,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="53" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
-        <v>bakker</v>
-      </c>
-      <c r="K6" s="53"/>
+        <v>Cees Draaier</v>
+      </c>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -17720,19 +17726,19 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="77"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
       </c>
@@ -17741,241 +17747,241 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="76">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="33">
         <f>F2</f>
-        <v>45728</v>
-      </c>
-      <c r="B12" s="56"/>
+        <v>45726</v>
+      </c>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="76">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="52">
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <f>A12+1</f>
-        <v>45729</v>
-      </c>
-      <c r="B14" s="56"/>
+        <v>45727</v>
+      </c>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="76">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="52">
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <f>A14+1</f>
-        <v>45730</v>
-      </c>
-      <c r="B16" s="56"/>
+        <v>45728</v>
+      </c>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="76">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="52">
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <f>A16+1</f>
-        <v>45731</v>
-      </c>
-      <c r="B18" s="56"/>
+        <v>45729</v>
+      </c>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="76">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="52">
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <f>A18+1</f>
-        <v>45732</v>
-      </c>
-      <c r="B20" s="56"/>
+        <v>45730</v>
+      </c>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -17994,7 +18000,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -18016,51 +18022,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="67"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="71"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="67"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="71"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="68"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="75"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -18087,7 +18093,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 5'!D27)</f>
-        <v>0</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -18130,6 +18136,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -18143,16 +18159,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18203,7 +18209,7 @@
       </c>
       <c r="F2" s="7">
         <f>IF($D$2='datum data.'!B2,'datum data.'!D2,IF($D$2='datum data.'!B4,'datum data.'!D4,IF(D2='datum data.'!B6,'datum data.'!D6,IF(D2='datum data.'!B8,'datum data.'!D8,IF('week 7'!D2='datum data.'!B10,'datum data.'!D10,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B14,'datum data.'!D14,IF(D2='datum data.'!B16,'datum data.'!D16,IF(D2='datum data.'!B18,'datum data.'!D18))))))))))</f>
-        <v>45735</v>
+        <v>45733</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9" t="s">
@@ -18211,7 +18217,7 @@
       </c>
       <c r="I2" s="7">
         <f>F2+4</f>
-        <v>45739</v>
+        <v>45737</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="10" t="s">
@@ -18245,11 +18251,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="53" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
-        <v>perijn</v>
-      </c>
-      <c r="D4" s="53"/>
+        <v>Perijn Huijser</v>
+      </c>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -18257,11 +18263,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="53" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
-        <v>Rocfriesepoort</v>
-      </c>
-      <c r="K4" s="53"/>
+        <v>NHL stenden</v>
+      </c>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -18287,11 +18293,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="53" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
-        <v>Rieno moedt</v>
-      </c>
-      <c r="D6" s="53"/>
+        <v>Hendrik Bijlsma</v>
+      </c>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -18299,11 +18305,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="53" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
-        <v>bakker</v>
-      </c>
-      <c r="K6" s="53"/>
+        <v>Cees Draaier</v>
+      </c>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -18370,19 +18376,19 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="77"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
       </c>
@@ -18391,241 +18397,241 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="76">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="33">
         <f>F2</f>
-        <v>45735</v>
-      </c>
-      <c r="B12" s="56"/>
+        <v>45733</v>
+      </c>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="76">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="52">
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <f>A12+1</f>
-        <v>45736</v>
-      </c>
-      <c r="B14" s="56"/>
+        <v>45734</v>
+      </c>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="76">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="52">
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <f>A14+1</f>
-        <v>45737</v>
-      </c>
-      <c r="B16" s="56"/>
+        <v>45735</v>
+      </c>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="76">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="52">
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <f>A16+1</f>
-        <v>45738</v>
-      </c>
-      <c r="B18" s="56"/>
+        <v>45736</v>
+      </c>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="76">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="52">
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <f>A18+1</f>
-        <v>45739</v>
-      </c>
-      <c r="B20" s="56"/>
+        <v>45737</v>
+      </c>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -18644,7 +18650,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -18666,51 +18672,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="67"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="71"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="67"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="71"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="68"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="75"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -18737,7 +18743,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 6'!D27)</f>
-        <v>0</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -18780,6 +18786,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -18793,16 +18809,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -18865,7 +18871,7 @@
       </c>
       <c r="F2" s="7">
         <f>IF($D$2='datum data.'!B2,'datum data.'!D2,IF($D$2='datum data.'!B4,'datum data.'!D4,IF(D2='datum data.'!B6,'datum data.'!D6,IF(D2='datum data.'!B8,'datum data.'!D8,IF('week 8'!D2='datum data.'!B10,'datum data.'!D10,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B14,'datum data.'!D14,IF(D2='datum data.'!B16,'datum data.'!D16,IF(D2='datum data.'!B18,'datum data.'!D18))))))))))</f>
-        <v>45742</v>
+        <v>45740</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9" t="s">
@@ -18873,7 +18879,7 @@
       </c>
       <c r="I2" s="7">
         <f>F2+4</f>
-        <v>45746</v>
+        <v>45744</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="10" t="s">
@@ -18907,11 +18913,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="53" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
-        <v>perijn</v>
-      </c>
-      <c r="D4" s="53"/>
+        <v>Perijn Huijser</v>
+      </c>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -18919,11 +18925,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="53" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
-        <v>Rocfriesepoort</v>
-      </c>
-      <c r="K4" s="53"/>
+        <v>NHL stenden</v>
+      </c>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -18949,11 +18955,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="53" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
-        <v>Rieno moedt</v>
-      </c>
-      <c r="D6" s="53"/>
+        <v>Hendrik Bijlsma</v>
+      </c>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -18961,11 +18967,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="53" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
-        <v>bakker</v>
-      </c>
-      <c r="K6" s="53"/>
+        <v>Cees Draaier</v>
+      </c>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -19032,19 +19038,19 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="77"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
       </c>
@@ -19053,241 +19059,241 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="76">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="33">
         <f>F2</f>
-        <v>45742</v>
-      </c>
-      <c r="B12" s="56"/>
+        <v>45740</v>
+      </c>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="76">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="52">
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <f>A12+1</f>
-        <v>45743</v>
-      </c>
-      <c r="B14" s="56"/>
+        <v>45741</v>
+      </c>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="76">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="52">
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <f>A14+1</f>
-        <v>45744</v>
-      </c>
-      <c r="B16" s="56"/>
+        <v>45742</v>
+      </c>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="76">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="52">
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <f>A16+1</f>
-        <v>45745</v>
-      </c>
-      <c r="B18" s="56"/>
+        <v>45743</v>
+      </c>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="76">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="52">
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <f>A18+1</f>
-        <v>45746</v>
-      </c>
-      <c r="B20" s="56"/>
+        <v>45744</v>
+      </c>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -19306,7 +19312,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -19328,51 +19334,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="67"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="71"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="67"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="71"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="68"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="75"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -19399,7 +19405,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 7'!D27)</f>
-        <v>0</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -19442,6 +19448,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D13:N14"/>
     <mergeCell ref="D11:N12"/>
@@ -19455,16 +19471,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19581,7 +19587,7 @@
       </c>
       <c r="B4" s="40">
         <f>'week 1'!A12</f>
-        <v>45693</v>
+        <v>45691</v>
       </c>
       <c r="C4" s="37">
         <f>'week 1'!B11</f>
@@ -19593,7 +19599,7 @@
       </c>
       <c r="F4" s="40">
         <f>'week 2'!A12</f>
-        <v>45700</v>
+        <v>45698</v>
       </c>
       <c r="G4" s="45">
         <f>'week 2'!B11</f>
@@ -19605,7 +19611,7 @@
       </c>
       <c r="J4" s="40">
         <f>'week 3'!A12</f>
-        <v>45707</v>
+        <v>45705</v>
       </c>
       <c r="K4" s="45">
         <f>'week 3'!B11</f>
@@ -19616,7 +19622,7 @@
       </c>
       <c r="N4" s="40">
         <f>'week 4'!A12</f>
-        <v>45714</v>
+        <v>45712</v>
       </c>
       <c r="O4" s="45">
         <f>'week 4'!B11</f>
@@ -19627,7 +19633,7 @@
       </c>
       <c r="R4" s="40">
         <f>'week 5'!A12</f>
-        <v>45721</v>
+        <v>45719</v>
       </c>
       <c r="S4" s="45">
         <f>'week 5'!B11</f>
@@ -19638,7 +19644,7 @@
       </c>
       <c r="V4" s="40">
         <f>'week 6'!A12</f>
-        <v>45728</v>
+        <v>45726</v>
       </c>
       <c r="W4" s="45">
         <f>'week 6'!B11</f>
@@ -19649,7 +19655,7 @@
       </c>
       <c r="Z4" s="40">
         <f>'week 7'!A12</f>
-        <v>45735</v>
+        <v>45733</v>
       </c>
       <c r="AA4" s="45">
         <f>'week 7'!B11</f>
@@ -19660,7 +19666,7 @@
       </c>
       <c r="AD4" s="40">
         <f>'week 8'!A12</f>
-        <v>45742</v>
+        <v>45740</v>
       </c>
       <c r="AE4" s="37">
         <f>'week 8'!B11</f>
@@ -19673,7 +19679,7 @@
       </c>
       <c r="B5" s="41">
         <f>'week 1'!A14</f>
-        <v>45694</v>
+        <v>45692</v>
       </c>
       <c r="C5" s="38">
         <f>'week 1'!B13</f>
@@ -19685,7 +19691,7 @@
       </c>
       <c r="F5" s="41">
         <f>'week 2'!A14</f>
-        <v>45701</v>
+        <v>45699</v>
       </c>
       <c r="G5" s="45">
         <f>'week 2'!B13</f>
@@ -19697,7 +19703,7 @@
       </c>
       <c r="J5" s="41">
         <f>'week 3'!A14</f>
-        <v>45708</v>
+        <v>45706</v>
       </c>
       <c r="K5" s="45">
         <f>'week 3'!B13</f>
@@ -19708,7 +19714,7 @@
       </c>
       <c r="N5" s="41">
         <f>'week 4'!A14</f>
-        <v>45715</v>
+        <v>45713</v>
       </c>
       <c r="O5" s="45">
         <f>'week 4'!B13</f>
@@ -19719,7 +19725,7 @@
       </c>
       <c r="R5" s="41">
         <f>'week 5'!A14</f>
-        <v>45722</v>
+        <v>45720</v>
       </c>
       <c r="S5" s="45">
         <f>'week 5'!B13</f>
@@ -19730,7 +19736,7 @@
       </c>
       <c r="V5" s="41">
         <f>'week 6'!A14</f>
-        <v>45729</v>
+        <v>45727</v>
       </c>
       <c r="W5" s="45">
         <f>'week 6'!B13</f>
@@ -19741,7 +19747,7 @@
       </c>
       <c r="Z5" s="41">
         <f>'week 7'!A14</f>
-        <v>45736</v>
+        <v>45734</v>
       </c>
       <c r="AA5" s="45">
         <f>'week 7'!B13</f>
@@ -19752,7 +19758,7 @@
       </c>
       <c r="AD5" s="41">
         <f>'week 8'!A14</f>
-        <v>45743</v>
+        <v>45741</v>
       </c>
       <c r="AE5" s="38">
         <f>'week 8'!B13</f>
@@ -19765,11 +19771,11 @@
       </c>
       <c r="B6" s="41">
         <f>'week 1'!A16</f>
-        <v>45695</v>
+        <v>45693</v>
       </c>
       <c r="C6" s="38">
         <f>'week 1'!B15</f>
-        <v>0</v>
+        <v>0.22916666666666663</v>
       </c>
       <c r="D6" s="36"/>
       <c r="E6" s="44" t="s">
@@ -19777,7 +19783,7 @@
       </c>
       <c r="F6" s="41">
         <f>'week 2'!A16</f>
-        <v>45702</v>
+        <v>45700</v>
       </c>
       <c r="G6" s="45">
         <f>'week 2'!B15</f>
@@ -19789,7 +19795,7 @@
       </c>
       <c r="J6" s="41">
         <f>'week 3'!A16</f>
-        <v>45709</v>
+        <v>45707</v>
       </c>
       <c r="K6" s="45">
         <f>'week 3'!B15</f>
@@ -19800,7 +19806,7 @@
       </c>
       <c r="N6" s="41">
         <f>'week 4'!A16</f>
-        <v>45716</v>
+        <v>45714</v>
       </c>
       <c r="O6" s="45">
         <f>'week 4'!B15</f>
@@ -19811,7 +19817,7 @@
       </c>
       <c r="R6" s="41">
         <f>'week 5'!A16</f>
-        <v>45723</v>
+        <v>45721</v>
       </c>
       <c r="S6" s="45">
         <f>'week 5'!B15</f>
@@ -19822,7 +19828,7 @@
       </c>
       <c r="V6" s="41">
         <f>'week 6'!A16</f>
-        <v>45730</v>
+        <v>45728</v>
       </c>
       <c r="W6" s="45">
         <f>'week 6'!B15</f>
@@ -19833,7 +19839,7 @@
       </c>
       <c r="Z6" s="41">
         <f>'week 7'!A16</f>
-        <v>45737</v>
+        <v>45735</v>
       </c>
       <c r="AA6" s="45">
         <f>'week 7'!B15</f>
@@ -19844,7 +19850,7 @@
       </c>
       <c r="AD6" s="41">
         <f>'week 8'!A16</f>
-        <v>45744</v>
+        <v>45742</v>
       </c>
       <c r="AE6" s="38">
         <f>'week 8'!B15</f>
@@ -19857,11 +19863,11 @@
       </c>
       <c r="B7" s="41">
         <f>'week 1'!A18</f>
-        <v>45696</v>
+        <v>45694</v>
       </c>
       <c r="C7" s="38">
         <f>'week 1'!B17</f>
-        <v>0</v>
+        <v>0.10416666666666663</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="44" t="s">
@@ -19869,7 +19875,7 @@
       </c>
       <c r="F7" s="41">
         <f>'week 2'!A18</f>
-        <v>45703</v>
+        <v>45701</v>
       </c>
       <c r="G7" s="45">
         <f>'week 2'!B17</f>
@@ -19881,7 +19887,7 @@
       </c>
       <c r="J7" s="41">
         <f>'week 3'!A18</f>
-        <v>45710</v>
+        <v>45708</v>
       </c>
       <c r="K7" s="45">
         <f>'week 3'!B17</f>
@@ -19892,7 +19898,7 @@
       </c>
       <c r="N7" s="41">
         <f>'week 4'!A18</f>
-        <v>45717</v>
+        <v>45715</v>
       </c>
       <c r="O7" s="45">
         <f>'week 4'!B17</f>
@@ -19903,7 +19909,7 @@
       </c>
       <c r="R7" s="41">
         <f>'week 5'!A18</f>
-        <v>45724</v>
+        <v>45722</v>
       </c>
       <c r="S7" s="45">
         <f>'week 5'!B17</f>
@@ -19914,7 +19920,7 @@
       </c>
       <c r="V7" s="41">
         <f>'week 6'!A18</f>
-        <v>45731</v>
+        <v>45729</v>
       </c>
       <c r="W7" s="45">
         <f>'week 6'!B17</f>
@@ -19925,7 +19931,7 @@
       </c>
       <c r="Z7" s="41">
         <f>'week 7'!A18</f>
-        <v>45738</v>
+        <v>45736</v>
       </c>
       <c r="AA7" s="45">
         <f>'week 7'!B17</f>
@@ -19936,7 +19942,7 @@
       </c>
       <c r="AD7" s="41">
         <f>'week 8'!A18</f>
-        <v>45745</v>
+        <v>45743</v>
       </c>
       <c r="AE7" s="38">
         <f>'week 8'!B17</f>
@@ -19949,7 +19955,7 @@
       </c>
       <c r="B8" s="42">
         <f>'week 1'!A20</f>
-        <v>45697</v>
+        <v>45695</v>
       </c>
       <c r="C8" s="39">
         <f>'week 1'!B19</f>
@@ -19961,7 +19967,7 @@
       </c>
       <c r="F8" s="42">
         <f>'week 2'!A20</f>
-        <v>45704</v>
+        <v>45702</v>
       </c>
       <c r="G8" s="47">
         <f>'week 2'!B19</f>
@@ -19973,7 +19979,7 @@
       </c>
       <c r="J8" s="42">
         <f>'week 3'!A20</f>
-        <v>45711</v>
+        <v>45709</v>
       </c>
       <c r="K8" s="47">
         <f>'week 3'!B19</f>
@@ -19984,7 +19990,7 @@
       </c>
       <c r="N8" s="42">
         <f>'week 4'!A20</f>
-        <v>45718</v>
+        <v>45716</v>
       </c>
       <c r="O8" s="47">
         <f>'week 4'!B19</f>
@@ -19995,7 +20001,7 @@
       </c>
       <c r="R8" s="42">
         <f>'week 5'!A20</f>
-        <v>45725</v>
+        <v>45723</v>
       </c>
       <c r="S8" s="47">
         <f>'week 5'!B19</f>
@@ -20006,7 +20012,7 @@
       </c>
       <c r="V8" s="42">
         <f>'week 6'!A20</f>
-        <v>45732</v>
+        <v>45730</v>
       </c>
       <c r="W8" s="47">
         <f>'week 6'!B19</f>
@@ -20017,7 +20023,7 @@
       </c>
       <c r="Z8" s="42">
         <f>'week 7'!A20</f>
-        <v>45739</v>
+        <v>45737</v>
       </c>
       <c r="AA8" s="47">
         <f>'week 7'!B19</f>
@@ -20028,7 +20034,7 @@
       </c>
       <c r="AD8" s="42">
         <f>'week 8'!A20</f>
-        <v>45746</v>
+        <v>45744</v>
       </c>
       <c r="AE8" s="39">
         <f>'week 8'!B19</f>
@@ -20043,7 +20049,7 @@
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="48">
         <f>'week 1'!D28</f>
-        <v>0</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="B24" s="48">
         <f>'week 2'!D28</f>
@@ -20085,11 +20091,11 @@
       </c>
       <c r="Q24" s="36">
         <f>SUM(C6,G6,K6,O6,S6,W6,AA6,AE6)</f>
-        <v>0</v>
+        <v>0.22916666666666663</v>
       </c>
       <c r="R24" s="36">
         <f>SUM(C7,G7,K7,O7,S7,W7,AA7,AE7)</f>
-        <v>0</v>
+        <v>0.10416666666666663</v>
       </c>
       <c r="S24" s="36">
         <f>SUM(C8,G8,K8,O8,S8,W8,AA8,AE8)</f>
@@ -20392,6 +20398,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="2311421a-1a78-47dc-a354-ac7cd3350930">
@@ -20400,15 +20415,6 @@
     <TaxCatchAll xmlns="c229a3ec-9035-4016-afff-d65ac05ad1ff" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20431,6 +20437,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95246B6B-5867-475C-A1FA-BAC082A87CBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED771D81-13A9-4225-8AFE-4E2129F69B97}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -20439,12 +20453,4 @@
     <ds:schemaRef ds:uri="c229a3ec-9035-4016-afff-d65ac05ad1ff"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95246B6B-5867-475C-A1FA-BAC082A87CBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentatie/Urenverantwoording/Perijn/Urenverantwoording.xlsx
+++ b/Documentatie/Urenverantwoording/Perijn/Urenverantwoording.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Perij\Documents\GitHub\Project-digitale-besturing\Documentatie\Urenverantwoording\Perijn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DEFC2F-FE45-4578-9628-76A237260E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3AEED7-75EC-438F-985C-B2B34D66A3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -792,6 +792,18 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="37" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -856,18 +868,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="37" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1176,7 +1176,7 @@
                   <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1400,7 +1400,7 @@
                   <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1765,7 +1765,7 @@
                   <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2132,7 +2132,7 @@
                   <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2805,7 +2805,7 @@
                 <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.33333333333333326</c:v>
+                  <c:v>0.39583333333333326</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3195,7 +3195,7 @@
                   <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6993,7 +6993,7 @@
                   <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -14055,7 +14055,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14135,10 +14135,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -14146,10 +14146,10 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="s">
+      <c r="J4" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -14175,10 +14175,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -14186,10 +14186,10 @@
         <v>42</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="s">
+      <c r="J6" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -14256,19 +14256,19 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
       </c>
@@ -14277,25 +14277,25 @@
       <c r="A11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11" s="54">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
       <c r="P11" s="35"/>
@@ -14306,22 +14306,22 @@
         <f>F2</f>
         <v>45691</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
       <c r="P12" s="35"/>
       <c r="Q12" s="18"/>
     </row>
@@ -14329,25 +14329,25 @@
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="27">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="74">
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="50">
         <v>0</v>
       </c>
       <c r="P13" s="35"/>
@@ -14358,22 +14358,22 @@
         <f>A12+1</f>
         <v>45692</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
       <c r="P14" s="35"/>
       <c r="Q14" s="18"/>
     </row>
@@ -14381,25 +14381,25 @@
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0.22916666666666663</v>
       </c>
       <c r="C15" s="27">
         <v>0.4375</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="74">
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="50">
         <v>0</v>
       </c>
       <c r="P15" s="35"/>
@@ -14410,46 +14410,46 @@
         <f>A14+1</f>
         <v>45693</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0.10416666666666663</v>
       </c>
       <c r="C17" s="27">
         <v>0.4375</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="74">
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="50">
         <v>0</v>
       </c>
     </row>
@@ -14458,46 +14458,46 @@
         <f>A16+1</f>
         <v>45694</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C19" s="27">
-        <v>0</v>
-      </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="74">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="50">
         <v>0</v>
       </c>
     </row>
@@ -14506,22 +14506,22 @@
         <f>A18+1</f>
         <v>45695</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
-        <v>0</v>
-      </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -14540,7 +14540,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>41</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -14562,51 +14562,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -14633,7 +14633,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>B11+B13+B15+B17+B19</f>
-        <v>0.33333333333333326</v>
+        <v>0.39583333333333326</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -14656,7 +14656,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="49">
         <f>SUM(B11:B20)</f>
-        <v>0.33333333333333326</v>
+        <v>0.39583333333333326</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -14676,16 +14676,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -14699,6 +14689,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14988,11 +14988,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Perijn Huijser</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -15000,11 +15000,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -15030,11 +15030,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -15042,11 +15042,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -15113,18 +15113,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -15134,25 +15134,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15161,46 +15161,46 @@
         <f>F2</f>
         <v>45698</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="27">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="74">
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15209,46 +15209,46 @@
         <f>A12+1</f>
         <v>45699</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="27">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="74">
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15257,46 +15257,46 @@
         <f>A14+1</f>
         <v>45700</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="74">
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15305,46 +15305,46 @@
         <f>A16+1</f>
         <v>45701</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="27">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="74">
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15353,22 +15353,22 @@
         <f>A18+1</f>
         <v>45702</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -15387,7 +15387,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -15409,51 +15409,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -15480,7 +15480,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 1'!D27)</f>
-        <v>0.33333333333333326</v>
+        <v>0.39583333333333326</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -15526,11 +15526,15 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="D11:N12"/>
+    <mergeCell ref="D13:N14"/>
     <mergeCell ref="D15:N16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
@@ -15540,15 +15544,11 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="D11:N12"/>
-    <mergeCell ref="D13:N14"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15640,11 +15640,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Perijn Huijser</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -15652,11 +15652,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -15682,11 +15682,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -15694,11 +15694,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -15765,18 +15765,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -15786,25 +15786,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15813,46 +15813,46 @@
         <f>F2</f>
         <v>45705</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="27">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="74">
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15861,46 +15861,46 @@
         <f>A12+1</f>
         <v>45706</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="27">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="74">
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15909,46 +15909,46 @@
         <f>A14+1</f>
         <v>45707</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="74">
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15957,46 +15957,46 @@
         <f>A16+1</f>
         <v>45708</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="27">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="74">
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="50">
         <v>0</v>
       </c>
     </row>
@@ -16005,22 +16005,22 @@
         <f>A18+1</f>
         <v>45709</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -16039,7 +16039,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -16061,51 +16061,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -16132,7 +16132,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 2'!D27)</f>
-        <v>0.33333333333333326</v>
+        <v>0.39583333333333326</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -16175,16 +16175,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -16198,6 +16188,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16289,11 +16289,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Perijn Huijser</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -16301,11 +16301,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -16331,11 +16331,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -16343,11 +16343,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -16414,18 +16414,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -16435,25 +16435,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -16462,46 +16462,46 @@
         <f>F2</f>
         <v>45712</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="74">
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="50">
         <v>0</v>
       </c>
     </row>
@@ -16510,46 +16510,46 @@
         <f>A12+1</f>
         <v>45713</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="74">
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="50">
         <v>0</v>
       </c>
     </row>
@@ -16558,45 +16558,45 @@
         <f>A14+1</f>
         <v>45714</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -16606,45 +16606,45 @@
         <f>A16+1</f>
         <v>45715</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -16654,22 +16654,22 @@
         <f>A18+1</f>
         <v>45716</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -16688,7 +16688,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -16710,51 +16710,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -16781,7 +16781,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 3'!D27)</f>
-        <v>0.33333333333333326</v>
+        <v>0.39583333333333326</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -16824,16 +16824,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -16847,6 +16837,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16939,11 +16939,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Perijn Huijser</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -16951,11 +16951,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -16981,11 +16981,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -16993,11 +16993,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -17064,18 +17064,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -17085,25 +17085,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -17112,45 +17112,45 @@
         <f>F2</f>
         <v>45719</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -17160,45 +17160,45 @@
         <f>A12+1</f>
         <v>45720</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -17208,45 +17208,45 @@
         <f>A14+1</f>
         <v>45721</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -17256,45 +17256,45 @@
         <f>A16+1</f>
         <v>45722</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -17304,22 +17304,22 @@
         <f>A18+1</f>
         <v>45723</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -17338,7 +17338,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -17360,51 +17360,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -17431,7 +17431,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 4'!D27)</f>
-        <v>0.33333333333333326</v>
+        <v>0.39583333333333326</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -17474,16 +17474,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -17497,6 +17487,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -17601,11 +17601,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Perijn Huijser</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -17613,11 +17613,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -17643,11 +17643,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -17655,11 +17655,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -17726,18 +17726,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -17747,25 +17747,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -17774,45 +17774,45 @@
         <f>F2</f>
         <v>45726</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -17822,45 +17822,45 @@
         <f>A12+1</f>
         <v>45727</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -17870,45 +17870,45 @@
         <f>A14+1</f>
         <v>45728</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -17918,45 +17918,45 @@
         <f>A16+1</f>
         <v>45729</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -17966,22 +17966,22 @@
         <f>A18+1</f>
         <v>45730</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -18000,7 +18000,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -18022,51 +18022,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -18093,7 +18093,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 5'!D27)</f>
-        <v>0.33333333333333326</v>
+        <v>0.39583333333333326</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -18136,16 +18136,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -18159,6 +18149,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18251,11 +18251,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Perijn Huijser</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -18263,11 +18263,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -18293,11 +18293,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -18305,11 +18305,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -18376,18 +18376,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -18397,25 +18397,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -18424,45 +18424,45 @@
         <f>F2</f>
         <v>45733</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -18472,45 +18472,45 @@
         <f>A12+1</f>
         <v>45734</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -18520,45 +18520,45 @@
         <f>A14+1</f>
         <v>45735</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -18568,45 +18568,45 @@
         <f>A16+1</f>
         <v>45736</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -18616,22 +18616,22 @@
         <f>A18+1</f>
         <v>45737</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -18650,7 +18650,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -18672,51 +18672,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -18743,7 +18743,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 6'!D27)</f>
-        <v>0.33333333333333326</v>
+        <v>0.39583333333333326</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -18786,16 +18786,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -18809,6 +18799,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -18913,11 +18913,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Perijn Huijser</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -18925,11 +18925,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -18955,11 +18955,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -18967,11 +18967,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -19038,18 +19038,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -19059,25 +19059,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -19086,45 +19086,45 @@
         <f>F2</f>
         <v>45740</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -19134,45 +19134,45 @@
         <f>A12+1</f>
         <v>45741</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -19182,45 +19182,45 @@
         <f>A14+1</f>
         <v>45742</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -19230,45 +19230,45 @@
         <f>A16+1</f>
         <v>45743</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -19278,22 +19278,22 @@
         <f>A18+1</f>
         <v>45744</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -19312,7 +19312,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -19334,51 +19334,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -19405,7 +19405,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 7'!D27)</f>
-        <v>0.33333333333333326</v>
+        <v>0.39583333333333326</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -19448,16 +19448,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D13:N14"/>
     <mergeCell ref="D11:N12"/>
@@ -19471,6 +19461,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19959,7 +19959,7 @@
       </c>
       <c r="C8" s="39">
         <f>'week 1'!B19</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="D8" s="36"/>
       <c r="E8" s="46" t="s">
@@ -20049,7 +20049,7 @@
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="48">
         <f>'week 1'!D28</f>
-        <v>0.33333333333333326</v>
+        <v>0.39583333333333326</v>
       </c>
       <c r="B24" s="48">
         <f>'week 2'!D28</f>
@@ -20099,7 +20099,7 @@
       </c>
       <c r="S24" s="36">
         <f>SUM(C8,G8,K8,O8,S8,W8,AA8,AE8)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="U24" s="36"/>
       <c r="Y24" s="36"/>
@@ -20195,6 +20195,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2311421a-1a78-47dc-a354-ac7cd3350930">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c229a3ec-9035-4016-afff-d65ac05ad1ff" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100620D60D3A7791A408192F9577A622611" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="6d60ec7fb257b476c7e22b24fdeb809b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2311421a-1a78-47dc-a354-ac7cd3350930" xmlns:ns3="c229a3ec-9035-4016-afff-d65ac05ad1ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60329889ea8ef2a5b5bc5aca08810b53" ns2:_="" ns3:_="">
     <xsd:import namespace="2311421a-1a78-47dc-a354-ac7cd3350930"/>
@@ -20397,27 +20417,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED771D81-13A9-4225-8AFE-4E2129F69B97}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2311421a-1a78-47dc-a354-ac7cd3350930"/>
+    <ds:schemaRef ds:uri="c229a3ec-9035-4016-afff-d65ac05ad1ff"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2311421a-1a78-47dc-a354-ac7cd3350930">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c229a3ec-9035-4016-afff-d65ac05ad1ff" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95246B6B-5867-475C-A1FA-BAC082A87CBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{852518A3-07B4-4E61-9724-DAD571943AC8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20434,23 +20453,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95246B6B-5867-475C-A1FA-BAC082A87CBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED771D81-13A9-4225-8AFE-4E2129F69B97}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2311421a-1a78-47dc-a354-ac7cd3350930"/>
-    <ds:schemaRef ds:uri="c229a3ec-9035-4016-afff-d65ac05ad1ff"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>